--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175622513109180</v>
+        <v>0175622513109185</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>359_蓝梦叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>849_婚庆卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +668,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175622513109185</v>
+        <v>01756225131091855565552550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +607,90 @@
       <c r="C21" t="str">
         <v>816_山里红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>859_喷色小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -668,7 +748,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01756225131091855565552550</v>
+        <v>017562251310918555655525565655555450</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -687,6 +687,9 @@
       <c r="C31" t="str">
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -748,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017562251310918555655525565655555450</v>
+        <v>017562251310918555655525565655555455</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,9 +691,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>86_威尼斯_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -751,7 +831,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017562251310918555655525565655555455</v>
+        <v>01756225131091855565552556565555545585558551265</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,9 +771,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>336_澳洲狐尾草_foxtail grass_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>858_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -831,7 +911,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01756225131091855565552556565555545585558551265</v>
+        <v>01756225131091855565552556565555545585558551265101865658550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -850,6 +850,9 @@
       <c r="A51" t="str">
         <v>1</v>
       </c>
+      <c r="C51" t="str">
+        <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -853,6 +853,9 @@
       <c r="C51" t="str">
         <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
+      <c r="F51" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -914,7 +917,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01756225131091855565552556565555545585558551265101865658550</v>
+        <v>017562251310918555655525565655555455855585512651018656585530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,9 +857,89 @@
         <v>30</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F52" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F53" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>119_绣球璀璨_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F54" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>111_绣球紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2</v>
+      </c>
+      <c r="C57" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -917,7 +997,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017562251310918555655525565655555455855585512651018656585530</v>
+        <v>0175622513109185556555255656555554558555855126510186565855303030201010101020100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -936,6 +936,9 @@
       <c r="C61" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -997,7 +1000,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175622513109185556555255656555554558555855126510186565855303030201010101020100</v>
+        <v>0175622513109185556555255656555554558555855126510186565855303030201010101020101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-21.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,12 +937,79 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>3</v>
+      </c>
+      <c r="C63" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>777_络新妇白_Astilbe white_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1000,7 +1067,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175622513109185556555255656555554558555855126510186565855303030201010101020101</v>
+        <v>017562251310918555655525565655555455855585512651018656585530303020101010102010101515557101030</v>
       </c>
     </row>
   </sheetData>
